--- a/Santiago-Rodríguez EJ.xlsx
+++ b/Santiago-Rodríguez EJ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\Git\citation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cites</t>
   </si>
@@ -54,24 +54,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>WA Calo, C Suárez-Balseiro, E Suárez…</t>
-  </si>
-  <si>
-    <t>Assessing the scientific research productivity of Puerto Rican cancer researchers: bibliometric analysis from the Science Citation Index</t>
-  </si>
-  <si>
-    <t>Puerto Rico health …</t>
-  </si>
-  <si>
-    <t>prhsj.rcm.upr.edu</t>
-  </si>
-  <si>
-    <t>http://prhsj.rcm.upr.edu/index.php/prhsj/article/view/459</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=12482979655146308663&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>EJ Santiago-Rodríguez, AM Mayor…</t>
   </si>
   <si>
@@ -88,55 +70,13 @@
   </si>
   <si>
     <t>http://scholar.google.com/scholar?cites=6212986265928369026&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>MA Vega-Vázquez, L Gonzalez-Rodriguez…</t>
-  </si>
-  <si>
-    <t>Quality of life-in patients with differentiated thyroid cancer at the general endocrinology clinics of the University Hospital of Puerto Rico.</t>
-  </si>
-  <si>
-    <t>Boletin de la …</t>
-  </si>
-  <si>
-    <t>europepmc.org</t>
-  </si>
-  <si>
-    <t>http://europepmc.org/abstract/med/26035981</t>
-  </si>
-  <si>
-    <t>JA Ortega-García, FA López-Hernández…</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Anales de pediatria ( …</t>
-  </si>
-  <si>
-    <t>http://europepmc.org/abstract/med/26164678</t>
-  </si>
-  <si>
-    <t>Analysis of small areas of pediatric cancer in the municipality of Murcia (Spain)</t>
-  </si>
-  <si>
-    <t>Análisis en áreas pequeñas del cáncer pediátrico en el municipio de Murcia</t>
-  </si>
-  <si>
-    <t>Anales de …</t>
-  </si>
-  <si>
-    <t>Elsevier</t>
-  </si>
-  <si>
-    <t>http://www.sciencedirect.com/science/article/pii/S1695403315002167</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +207,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -569,7 +517,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -612,12 +560,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -651,6 +601,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -937,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +946,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1004,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1012,142 +963,23 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>42285</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>2014</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>2014</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>2015</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>2015</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>42285</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>